--- a/data/trans_camb/P45C_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7511637436520049</v>
+        <v>0.4210743325345985</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5294123690162063</v>
+        <v>1.120031705757382</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.95383657169976</v>
+        <v>-16.35358514039558</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.311618114448335</v>
+        <v>-6.551077242791567</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.118451120903412</v>
+        <v>-6.19399826923625</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-18.86568701510299</v>
+        <v>-19.51411372759618</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.13940360692404</v>
+        <v>-1.722571170920388</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.6328780768893607</v>
+        <v>-0.5266862969554766</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-16.83971617154127</v>
+        <v>-16.5340010906355</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.39984383409566</v>
+        <v>12.30321366214633</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.08919326411376</v>
+        <v>13.45603313552695</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-8.889665807109367</v>
+        <v>-8.700689094825385</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.447010120180513</v>
+        <v>5.049750809534301</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.491337464304213</v>
+        <v>5.480747150419733</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-10.63840468917026</v>
+        <v>-10.60249523730391</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.470208595710339</v>
+        <v>6.787770788851542</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.057647339529824</v>
+        <v>8.105453308254628</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-10.62493754073807</v>
+        <v>-10.67514878623024</v>
       </c>
     </row>
     <row r="7">
@@ -780,26 +780,26 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.05165812705581111</v>
+        <v>0.02084470337332425</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.02727718103111164</v>
+        <v>0.06858833655975805</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.4097101384438561</v>
+        <v>-0.3985116444582645</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3440969107437267</v>
+        <v>-0.3437368332617378</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1366365946786598</v>
+        <v>-0.1088006468106262</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.04163662288091693</v>
+        <v>-0.03524472320276709</v>
       </c>
       <c r="K8" s="6" t="n">
         <v>-1</v>
@@ -813,29 +813,29 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.302759202801199</v>
+        <v>1.332067025023329</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.533287668284019</v>
+        <v>1.4145232620773</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>0.4630571450482538</v>
+        <v>0.4393101524110881</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4700584630352036</v>
+        <v>0.4696698582215278</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.9369713421048749</v>
+        <v>-0.940051372627739</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5456031635576043</v>
+        <v>0.5968662343236023</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6918235908260781</v>
+        <v>0.7096116987998732</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.9694563801187823</v>
+        <v>-0.9730404025233205</v>
       </c>
     </row>
     <row r="10">
@@ -856,7 +856,7 @@
         <v>-11.3331716558239</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-6.939960399513931</v>
+        <v>-6.939960399513934</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-10.02460451260586</v>
@@ -885,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-17.56572535240243</v>
+        <v>-16.77632677560722</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-16.80209207732787</v>
+        <v>-16.55420596588344</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-12.89818946023394</v>
+        <v>-12.96782093999943</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-14.16875163204398</v>
+        <v>-14.45324838569826</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.558522398825234</v>
+        <v>-9.658447822356626</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.063496737029228</v>
+        <v>-8.83173012541921</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-14.49356560091221</v>
+        <v>-14.61301525992921</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-11.71935350591128</v>
+        <v>-11.59061452033043</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-9.311578659642137</v>
+        <v>-9.151071524903962</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-7.190532271490002</v>
+        <v>-7.331884644972239</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.388709185324457</v>
+        <v>-6.491605818741808</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.128022384388385</v>
+        <v>-1.594640153476402</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.210815821482644</v>
+        <v>-5.984952883688943</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.8080342014646038</v>
+        <v>-0.6446959165286845</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0456779321101631</v>
+        <v>0.2356003482263112</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-7.532109552637438</v>
+        <v>-7.727262514020403</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-5.053142742347148</v>
+        <v>-4.956684331644345</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.862185979492991</v>
+        <v>-1.645476863948044</v>
       </c>
     </row>
     <row r="13">
@@ -961,7 +961,7 @@
         <v>-0.4704801454788979</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2881023668871392</v>
+        <v>-0.2881023668871394</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.5022395776992605</v>
@@ -990,31 +990,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6354508932164894</v>
+        <v>-0.6236973979653875</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6049759878676658</v>
+        <v>-0.6149718555070823</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4863261800445531</v>
+        <v>-0.4800476874339498</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6345791287127603</v>
+        <v>-0.6358079509398491</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4384876909190631</v>
+        <v>-0.4299923062245069</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.399576145177359</v>
+        <v>-0.3946264511399533</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5973724325496353</v>
+        <v>-0.6076167948336859</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4881027592355863</v>
+        <v>-0.4872430707299473</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3864535839808335</v>
+        <v>-0.3903387104052593</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1025,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.3411073519932953</v>
+        <v>-0.3247724983974519</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2924655846485661</v>
+        <v>-0.3081162883118804</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.04294377469236062</v>
+        <v>-0.05759559064986438</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.3177435647826928</v>
+        <v>-0.3208780092603169</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.04658778146141868</v>
+        <v>-0.03043200235077668</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.004714425633301228</v>
+        <v>0.01310105586906194</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3750639853397267</v>
+        <v>-0.3812185584833366</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2400032953898892</v>
+        <v>-0.2405522755244219</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.08679231257263943</v>
+        <v>-0.08157888955317998</v>
       </c>
     </row>
     <row r="16">
@@ -1079,7 +1079,7 @@
         <v>1.015758503134776</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-3.922725405126949</v>
+        <v>-3.92272540512695</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>11.36394384458123</v>
@@ -1088,7 +1088,7 @@
         <v>-1.166016495043865</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-4.778259215078057</v>
+        <v>-4.778259215078055</v>
       </c>
     </row>
     <row r="17">
@@ -1099,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>12.09539417924286</v>
+        <v>11.60785462590344</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.072225167866391</v>
+        <v>-7.74141643031873</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.12982415434383</v>
+        <v>-10.49284182535377</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09455936855215279</v>
+        <v>-0.3868712334676423</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.169890323065354</v>
+        <v>-3.657553042949344</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-8.396464954988247</v>
+        <v>-8.465889626308543</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.337367933758779</v>
+        <v>7.335622878565829</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.478425381940077</v>
+        <v>-4.591970051896401</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-7.974363026748109</v>
+        <v>-7.823540244912396</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>24.25972666819024</v>
+        <v>24.21052805008057</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.227259497455763</v>
+        <v>1.247901604037637</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.696610149588338</v>
+        <v>-1.092052793385009</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.79383420961514</v>
+        <v>10.8508798390671</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.791306456047353</v>
+        <v>5.907268885662016</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6113283660345326</v>
+        <v>0.4070054400572389</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>15.45314810847051</v>
+        <v>15.38547045145963</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.999388354187229</v>
+        <v>2.20392653468316</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.848838715117335</v>
+        <v>-1.593628393621798</v>
       </c>
     </row>
     <row r="19">
@@ -1184,7 +1184,7 @@
         <v>0.0889996975735471</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.3437050968738438</v>
+        <v>-0.3437050968738439</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.9495148686067207</v>
@@ -1193,7 +1193,7 @@
         <v>-0.09742656372002192</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.3992476760554501</v>
+        <v>-0.39924767605545</v>
       </c>
     </row>
     <row r="20">
@@ -1204,31 +1204,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.7904286960036128</v>
+        <v>0.7421097551786374</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5453944648069997</v>
+        <v>-0.5354741565085489</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6783550007909456</v>
+        <v>-0.677508839531481</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.00408428643788639</v>
+        <v>-0.04277243315684942</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3004492254471199</v>
+        <v>-0.2794904977276025</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.598192026341374</v>
+        <v>-0.6198860765819786</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5160830660059134</v>
+        <v>0.5097625612201381</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3232363700796693</v>
+        <v>-0.3320031019668487</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5854639153981637</v>
+        <v>-0.5620915458228399</v>
       </c>
     </row>
     <row r="21">
@@ -1239,31 +1239,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.528725383532579</v>
+        <v>2.498553983004184</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1156516526137915</v>
+        <v>0.1466837308976542</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1322122568473114</v>
+        <v>-0.07257497274645401</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.14952233569836</v>
+        <v>1.174990173527085</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6864452157368391</v>
+        <v>0.6856161495639819</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08953978863948046</v>
+        <v>0.04025133469498047</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.527218248091481</v>
+        <v>1.533056724886443</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1879954130966045</v>
+        <v>0.2240183320304168</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1668891471758191</v>
+        <v>-0.145592856456521</v>
       </c>
     </row>
     <row r="22">
@@ -1293,7 +1293,7 @@
         <v>-1.216279750781186</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.488138781555336</v>
+        <v>-1.488138781555334</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-7.374650600347393</v>
@@ -1302,7 +1302,7 @@
         <v>-5.052979857890158</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-4.75659737266603</v>
+        <v>-4.756597372666024</v>
       </c>
     </row>
     <row r="23">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-16.43908548925021</v>
+        <v>-16.19686215227289</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-15.21989000218669</v>
+        <v>-14.34733223399583</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-14.5699029529763</v>
+        <v>-14.24353610848702</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.729005104690748</v>
+        <v>-8.483880946083849</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.188334823664391</v>
+        <v>-5.736112713120871</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.064381404633422</v>
+        <v>-5.859722259417924</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-10.59261998311466</v>
+        <v>-11.27770848978468</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.664384059922471</v>
+        <v>-8.690938315761974</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-8.603337110810573</v>
+        <v>-8.84853365764463</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-4.41629871727429</v>
+        <v>-4.795509315267466</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.392772366208535</v>
+        <v>-3.275122054717689</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.9863366147107412</v>
+        <v>-0.4883104461541742</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3350613519290654</v>
+        <v>0.1640000981711057</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.543189132665242</v>
+        <v>3.580241059658774</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.546520880105197</v>
+        <v>2.641318346368311</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-4.036382406440923</v>
+        <v>-3.849420210396073</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.245515488451972</v>
+        <v>-1.283322358211419</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.4962646387579573</v>
+        <v>-0.439156000120468</v>
       </c>
     </row>
     <row r="25">
@@ -1398,7 +1398,7 @@
         <v>-0.09629365902927221</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1178169153332439</v>
+        <v>-0.1178169153332438</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.4189922438351671</v>
@@ -1407,7 +1407,7 @@
         <v>-0.2870860578278203</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.2702470278524</v>
+        <v>-0.2702470278523997</v>
       </c>
     </row>
     <row r="26">
@@ -1418,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6362636752631957</v>
+        <v>-0.6173012100510555</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5845492602927979</v>
+        <v>-0.5596287008270044</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5858665071560925</v>
+        <v>-0.5714035917248791</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5733691580891587</v>
+        <v>-0.5795936849863274</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4094097391116228</v>
+        <v>-0.3803557410635288</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3973862507212803</v>
+        <v>-0.3904225131050382</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5486345959460365</v>
+        <v>-0.5775470761942922</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4453332048903396</v>
+        <v>-0.4414519275645243</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4449984225079363</v>
+        <v>-0.4588413032634902</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.2311819352378205</v>
+        <v>-0.2367483816679632</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1700537923547227</v>
+        <v>-0.1589934986092458</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.04578049191210094</v>
+        <v>-0.0212606576097618</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.05435906218072632</v>
+        <v>0.01143355722378562</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3300464784092775</v>
+        <v>0.3700956332026669</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2414969290452579</v>
+        <v>0.2610594124843182</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.2474678435203581</v>
+        <v>-0.2446602217558871</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.08575557456437061</v>
+        <v>-0.06731475388880698</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.02654807182194657</v>
+        <v>-0.02014704493396707</v>
       </c>
     </row>
     <row r="28">
@@ -1498,7 +1498,7 @@
         <v>-2.187052181076123</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.372329312003699</v>
+        <v>0.3723293120036997</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.623986459831109</v>
@@ -1507,7 +1507,7 @@
         <v>-6.109847459303164</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-2.768285433836949</v>
+        <v>-2.76828543383695</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.912898325085586</v>
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.07756642751589081</v>
+        <v>-0.07146997741753079</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.244841509593237</v>
+        <v>-6.546790079306931</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.103355372570052</v>
+        <v>-4.431328368175101</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.5141613909397034</v>
+        <v>-0.7666113107802347</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.873892096575295</v>
+        <v>-9.860726460429229</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.987632015150422</v>
+        <v>-6.956011479017063</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.433565214649619</v>
+        <v>1.573497044059148</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.211948231729111</v>
+        <v>-6.987267338456577</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.183667012294846</v>
+        <v>-4.123980375540413</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.5122852125348</v>
+        <v>10.20509909647071</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.700405045823539</v>
+        <v>1.513647242292475</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.568824173818946</v>
+        <v>4.46854947521958</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.14753385511185</v>
+        <v>10.04128041234831</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-2.966234734532628</v>
+        <v>-3.256670303929316</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.6385489751907529</v>
+        <v>1.242888156346365</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.738807089890845</v>
+        <v>8.801261119582014</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.712741354894215</v>
+        <v>-1.839327759188029</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.387005399522008</v>
+        <v>1.4897857001521</v>
       </c>
     </row>
     <row r="31">
@@ -1603,7 +1603,7 @@
         <v>-0.390276933877941</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.06644173538200056</v>
+        <v>0.06644173538200068</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.712690176895279</v>
@@ -1612,7 +1612,7 @@
         <v>-0.9417043722772901</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.4266729266352439</v>
+        <v>-0.426672926635244</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.8119619905448787</v>
@@ -1632,31 +1632,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04712819768109259</v>
+        <v>-0.04333116815018109</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7852854198377834</v>
+        <v>-0.8079804742679756</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4995152434110868</v>
+        <v>-0.5491515803010849</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.0981835401529462</v>
+        <v>-0.1099029381152028</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.764498560855243</v>
+        <v>-0.7511566378739322</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1390713908884252</v>
+        <v>0.1718683573723349</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.8752132105187548</v>
+        <v>-0.8674966525626483</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5478742956605135</v>
+        <v>-0.5394647360793786</v>
       </c>
     </row>
     <row r="33">
@@ -1667,31 +1667,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.02599460005484</v>
+        <v>2.803365811742586</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7462252552033029</v>
+        <v>0.5430587183149919</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.436195466913855</v>
+        <v>1.313338981050273</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.38127364661475</v>
+        <v>2.372902770135542</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.6445713627577417</v>
+        <v>-0.5926707735201866</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2480295274886551</v>
+        <v>0.3998587147363117</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>2.038745637384509</v>
+        <v>1.885086831988504</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.3030835269561106</v>
+        <v>-0.2795435495579243</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3212513310002616</v>
+        <v>0.3578565644996995</v>
       </c>
     </row>
     <row r="34">
@@ -1721,7 +1721,7 @@
         <v>-12.3909848729416</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>12.77968018594138</v>
+        <v>12.77968018594136</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>7.180639103354741</v>
@@ -1730,7 +1730,7 @@
         <v>-17.74758417414137</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>4.335743131537983</v>
+        <v>4.335743131537989</v>
       </c>
     </row>
     <row r="35">
@@ -1741,31 +1741,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.185282118248658</v>
+        <v>0.1124307381003422</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-29.14337690663579</v>
+        <v>-28.68371301294246</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-11.59565469557543</v>
+        <v>-11.7836168826101</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.3731875286905502</v>
+        <v>0.7380065306283234</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-17.53504234953524</v>
+        <v>-17.86703330646646</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>6.052414622863068</v>
+        <v>6.702023968113282</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.695200072900902</v>
+        <v>1.99633643671223</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-21.53473478792252</v>
+        <v>-21.44210367768977</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.2296242440187574</v>
+        <v>-0.125974752480673</v>
       </c>
     </row>
     <row r="36">
@@ -1776,31 +1776,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>15.65415087597823</v>
+        <v>15.06707537632275</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-17.92722405221365</v>
+        <v>-17.46149140982608</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.4160470035457</v>
+        <v>2.865863564920968</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13.47656937840499</v>
+        <v>13.92111342330308</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-7.348996140038867</v>
+        <v>-7.762424568182913</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>18.65941697702217</v>
+        <v>19.31461616556745</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>12.19834537791151</v>
+        <v>12.41025152305594</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-13.76430899777404</v>
+        <v>-14.06733220551098</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>9.069543635514485</v>
+        <v>9.241064425076937</v>
       </c>
     </row>
     <row r="37">
@@ -1826,7 +1826,7 @@
         <v>-0.7534449631026048</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7770799306830105</v>
+        <v>0.7770799306830095</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.3429588615794378</v>
@@ -1835,7 +1835,7 @@
         <v>-0.8476531373516758</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.2070820587262806</v>
+        <v>0.2070820587262809</v>
       </c>
     </row>
     <row r="38">
@@ -1846,31 +1846,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.008724215189355199</v>
+        <v>0.003738088686583947</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.9693603113346594</v>
+        <v>-0.9648226023582946</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3796236682139426</v>
+        <v>-0.3926694456285083</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.02079346087654554</v>
+        <v>0.03630858666277213</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.8819070182279384</v>
+        <v>-0.8801024929639759</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.306523213438741</v>
+        <v>0.299053728128041</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.06163251705122396</v>
+        <v>0.08580375072902567</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.9114568044523714</v>
+        <v>-0.9111888967208225</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.009357139165535773</v>
+        <v>-0.0068557087311309</v>
       </c>
     </row>
     <row r="39">
@@ -1881,31 +1881,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.7317582431877374</v>
+        <v>0.7071753168212652</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.8101209777803483</v>
+        <v>-0.790742015666097</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1319510172751275</v>
+        <v>0.1416942458544184</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.024862310060016</v>
+        <v>1.072532399130545</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.5581603637851829</v>
+        <v>-0.5359457489572153</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.454027666620413</v>
+        <v>1.466436054381508</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6769344658917349</v>
+        <v>0.6843138575021227</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.7460456258324076</v>
+        <v>-0.7580403360597131</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.4990542203156607</v>
+        <v>0.4952884583968715</v>
       </c>
     </row>
     <row r="40">
@@ -1926,7 +1926,7 @@
         <v>1.345304560736799</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.452470251146507</v>
+        <v>1.452470251146504</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>11.72689377864498</v>
@@ -1944,7 +1944,7 @@
         <v>3.9027946916079</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.605504817012408</v>
+        <v>2.605504817012405</v>
       </c>
     </row>
     <row r="41">
@@ -1955,31 +1955,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>8.073555083009987</v>
+        <v>8.231294313583867</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.104979192425622</v>
+        <v>-2.452008462439821</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.402367800446745</v>
+        <v>-2.780733721692526</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7.619304772333881</v>
+        <v>7.420448420853411</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.847280813784392</v>
+        <v>2.898732306278301</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.248577717014568</v>
+        <v>0.05415382487719114</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>9.258382800089784</v>
+        <v>9.408484175969859</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.250440268778333</v>
+        <v>1.186921169439881</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.2685365870226444</v>
+        <v>0.01513285063209741</v>
       </c>
     </row>
     <row r="42">
@@ -1990,31 +1990,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>16.85596093965955</v>
+        <v>17.15087887095986</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.253111048338307</v>
+        <v>5.910586682837692</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.180395833228471</v>
+        <v>5.525863205366607</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>15.67834872738014</v>
+        <v>15.7682756745483</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>10.04875908745267</v>
+        <v>9.842964756308076</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.173988141403473</v>
+        <v>7.08209580809229</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>15.27265978674231</v>
+        <v>15.24988510118178</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>6.558727929926089</v>
+        <v>6.608263908770898</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.319098429956424</v>
+        <v>5.290627109943864</v>
       </c>
     </row>
     <row r="43">
@@ -2031,7 +2031,7 @@
         <v>0.1031802798334743</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.111399523451414</v>
+        <v>0.1113995234514138</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>1.193609103562433</v>
@@ -2049,7 +2049,7 @@
         <v>0.3422585130624226</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.2284917027188674</v>
+        <v>0.2284917027188672</v>
       </c>
     </row>
     <row r="44">
@@ -2060,31 +2060,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.5442718270246237</v>
+        <v>0.5608596004904413</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2033386575035375</v>
+        <v>-0.1736328478203788</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1683538446359722</v>
+        <v>-0.1930427140977534</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.6177575637013768</v>
+        <v>0.61164193836241</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2471854312430772</v>
+        <v>0.2129008927580469</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02040948299793042</v>
+        <v>-0.0003694095357962282</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7243378804131941</v>
+        <v>0.7303334849692253</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.09537119268205441</v>
+        <v>0.08982858277143849</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.0210204842535927</v>
+        <v>0.001009903121735711</v>
       </c>
     </row>
     <row r="45">
@@ -2095,31 +2095,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.563901948589892</v>
+        <v>1.591349470264615</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4682043118390875</v>
+        <v>0.52785518586856</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.554371279454418</v>
+        <v>0.4893443847196544</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.864392506484103</v>
+        <v>1.883938774545985</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.244649928821951</v>
+        <v>1.196880931525381</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8440940768334387</v>
+        <v>0.8494576265385476</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.513035452335491</v>
+        <v>1.504724433690537</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.6509791140477587</v>
+        <v>0.6481918841267973</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.530062481323413</v>
+        <v>0.5277123348230447</v>
       </c>
     </row>
     <row r="46">
@@ -2149,7 +2149,7 @@
         <v>9.111558097581396</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>8.473374364548015</v>
+        <v>8.47337436454802</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-2.623637088585813</v>
@@ -2158,7 +2158,7 @@
         <v>8.755690132883437</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>14.88223544108884</v>
+        <v>14.88223544108883</v>
       </c>
     </row>
     <row r="47">
@@ -2169,31 +2169,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-5.926356271513385</v>
+        <v>-6.135102320999319</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>4.65611794954394</v>
+        <v>4.581013322945003</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>17.58001481299098</v>
+        <v>17.02770962630609</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-4.99167030524731</v>
+        <v>-4.725186825013346</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>5.794890280684094</v>
+        <v>5.675384723598642</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>5.26375306680955</v>
+        <v>5.51366297934289</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-4.629307991095798</v>
+        <v>-4.613615054626175</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>6.164894153717738</v>
+        <v>6.301520662406356</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>12.03000144240613</v>
+        <v>12.01841306239822</v>
       </c>
     </row>
     <row r="48">
@@ -2204,31 +2204,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.02289436221022247</v>
+        <v>-0.1535235845604006</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>11.91106109971471</v>
+        <v>12.31276881084373</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>26.02674130312345</v>
+        <v>25.97352079674496</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.3402627633604867</v>
+        <v>0.4813371301526453</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>12.78959859199632</v>
+        <v>12.59141676872882</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>11.78907365776113</v>
+        <v>11.80034474365601</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-0.7371964444444756</v>
+        <v>-0.5042782398752721</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>11.17949411605735</v>
+        <v>11.17997683233075</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>18.01234741210337</v>
+        <v>17.78511868863496</v>
       </c>
     </row>
     <row r="49">
@@ -2254,7 +2254,7 @@
         <v>0.9673291895648836</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.8995763698322693</v>
+        <v>0.89957636983227</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.2616212011557554</v>
@@ -2263,7 +2263,7 @@
         <v>0.8730910915530905</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>1.484011767069159</v>
+        <v>1.484011767069158</v>
       </c>
     </row>
     <row r="50">
@@ -2274,31 +2274,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4752145220051699</v>
+        <v>-0.4899962455408008</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.3786501159283744</v>
+        <v>0.3743272707305724</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>1.41789166027152</v>
+        <v>1.383835469377532</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4525644881739925</v>
+        <v>-0.4414930300002332</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.5133008769099588</v>
+        <v>0.5134845165679123</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4969200936867131</v>
+        <v>0.4797161422171486</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.4172716041723691</v>
+        <v>-0.4131955619997935</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.5479282104671012</v>
+        <v>0.559011462606922</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>1.060812596675182</v>
+        <v>1.043473454254341</v>
       </c>
     </row>
     <row r="51">
@@ -2309,31 +2309,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.01250830295467416</v>
+        <v>-0.01798915882190479</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.31131026392095</v>
+        <v>1.330545636912955</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>2.925579984367899</v>
+        <v>2.845972104963596</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.05170047623891441</v>
+        <v>0.06079564721052772</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.6201704611035</v>
+        <v>1.599139955045777</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.505622197566598</v>
+        <v>1.501308665068228</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.07600105134080239</v>
+        <v>-0.0541850315680568</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>1.24290444635563</v>
+        <v>1.272925115215784</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>2.034638786226829</v>
+        <v>2.019914220139656</v>
       </c>
     </row>
     <row r="52">
@@ -2354,7 +2354,7 @@
         <v>-2.242189858137591</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>1.261103334331695</v>
+        <v>1.261103334331692</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>1.044556028593433</v>
@@ -2372,7 +2372,7 @@
         <v>-0.5232645023454913</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>1.056623925760802</v>
+        <v>1.0566239257608</v>
       </c>
     </row>
     <row r="53">
@@ -2383,31 +2383,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.06622070778239657</v>
+        <v>0.2731823426102983</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-3.986410375242274</v>
+        <v>-4.05008378575258</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.6250860393297274</v>
+        <v>-0.6659694663788989</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.6536665826892744</v>
+        <v>-0.4795985570031193</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.5186220735446002</v>
+        <v>-0.4312409768194229</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.6324445590698938</v>
+        <v>-0.6579284390409582</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.09849638654531409</v>
+        <v>0.2460968883682084</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-1.823698902453653</v>
+        <v>-1.656935430264377</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.178604743616358</v>
+        <v>-0.2613744224421445</v>
       </c>
     </row>
     <row r="54">
@@ -2418,31 +2418,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>3.654207083794293</v>
+        <v>3.90281624007352</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.5681369108383352</v>
+        <v>-0.4028835851513905</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>3.152015350757253</v>
+        <v>3.25327392828053</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>2.64873093477296</v>
+        <v>2.662376021302183</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>2.861019852893569</v>
+        <v>2.689356948465256</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>2.335915481538734</v>
+        <v>2.268606434826397</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>2.569269022531421</v>
+        <v>2.711979658451723</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>0.5925277666929781</v>
+        <v>0.6403023480586735</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>2.269128011459571</v>
+        <v>2.329383290423835</v>
       </c>
     </row>
     <row r="55">
@@ -2459,7 +2459,7 @@
         <v>-0.1427437054794612</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.0802851561751928</v>
+        <v>0.08028515617519262</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.08404970234024291</v>
@@ -2477,7 +2477,7 @@
         <v>-0.03726266855465028</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.07524421579536453</v>
+        <v>0.07524421579536433</v>
       </c>
     </row>
     <row r="56">
@@ -2488,31 +2488,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.004022827000894903</v>
+        <v>0.01555307509895703</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.2429049616113139</v>
+        <v>-0.2454987308018482</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.0391449229789194</v>
+        <v>-0.04000088966867789</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.04942600046857013</v>
+        <v>-0.03818415460415221</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.03848823263433983</v>
+        <v>-0.03309472442729072</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.04620901504306296</v>
+        <v>-0.05339193849699218</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.007057888362958075</v>
+        <v>0.01767738133253718</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.122483578804335</v>
+        <v>-0.1143386121112516</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.01195121452231336</v>
+        <v>-0.0180002187443293</v>
       </c>
     </row>
     <row r="57">
@@ -2523,31 +2523,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.2480266317550494</v>
+        <v>0.2662793106801971</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.03943681156796661</v>
+        <v>-0.02860773564240275</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.2127058811665749</v>
+        <v>0.2184155858971447</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.2285627093224976</v>
+        <v>0.224843778935804</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.2444164054829601</v>
+        <v>0.2275725862022043</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.1994850151828822</v>
+        <v>0.1936025783310784</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1906173093577858</v>
+        <v>0.2009259223453746</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.0447385698943473</v>
+        <v>0.04782360001918044</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.1701982093561753</v>
+        <v>0.1726512769589415</v>
       </c>
     </row>
     <row r="58">
